--- a/converter/data/xlsx/23.11._B_SMJENA.XLSX
+++ b/converter/data/xlsx/23.11._B_SMJENA.XLSX
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RASPORED-2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zkuns.MARTA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85E93BF-2D24-4E42-B5A1-A8EEB82DC96F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" tabRatio="478"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="8" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="106">
   <si>
     <t>Predmetni profesor:</t>
   </si>
@@ -365,7 +364,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3448,6 +3447,36 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3460,50 +3489,20 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normalno" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalno 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normalno 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normalno 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normalno 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normalno 6" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Obično 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normalno 2" xfId="1"/>
+    <cellStyle name="Normalno 3" xfId="5"/>
+    <cellStyle name="Normalno 4" xfId="6"/>
+    <cellStyle name="Normalno 5" xfId="7"/>
+    <cellStyle name="Normalno 6" xfId="8"/>
+    <cellStyle name="Obično 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3547,7 +3546,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3607,7 +3606,7 @@
         <xdr:cNvPr id="4" name="Ravni poveznik sa strelicom 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3660,7 +3659,7 @@
         <xdr:cNvPr id="5" name="Ravni poveznik sa strelicom 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3713,7 +3712,7 @@
         <xdr:cNvPr id="8" name="Ravni poveznik sa strelicom 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3827,23 +3826,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3879,23 +3861,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4071,137 +4036,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" workbookViewId="0">
-      <selection activeCell="X49" sqref="X49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="6" customWidth="1"/>
     <col min="6" max="6" width="6" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="6" customWidth="1"/>
-    <col min="9" max="11" width="6.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="6" customWidth="1"/>
-    <col min="16" max="17" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="5.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" style="6" customWidth="1"/>
-    <col min="23" max="24" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="5.5703125" style="6" customWidth="1"/>
-    <col min="28" max="29" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="5.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="6" customWidth="1"/>
+    <col min="9" max="11" width="6.5546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="6" customWidth="1"/>
+    <col min="16" max="17" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.5546875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="6.88671875" style="6" customWidth="1"/>
+    <col min="23" max="24" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="5.5546875" style="6" customWidth="1"/>
+    <col min="28" max="29" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="5.5546875" style="6" customWidth="1"/>
     <col min="34" max="34" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" style="6" customWidth="1"/>
-    <col min="37" max="37" width="6.140625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="35" max="35" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.5546875" style="6" customWidth="1"/>
+    <col min="37" max="37" width="6.109375" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="507" t="s">
+    <row r="1" spans="1:37" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="505" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="507"/>
-      <c r="C1" s="507"/>
-      <c r="D1" s="507"/>
-      <c r="E1" s="507"/>
-      <c r="F1" s="507"/>
-      <c r="G1" s="507"/>
-      <c r="H1" s="507"/>
-      <c r="I1" s="507"/>
-      <c r="J1" s="507"/>
-      <c r="K1" s="507"/>
-      <c r="L1" s="507"/>
-      <c r="M1" s="507"/>
-      <c r="N1" s="507"/>
-      <c r="O1" s="507"/>
-      <c r="P1" s="507"/>
-      <c r="Q1" s="507"/>
-      <c r="R1" s="507"/>
-      <c r="S1" s="507"/>
-      <c r="T1" s="507"/>
-      <c r="U1" s="507"/>
-      <c r="V1" s="507"/>
-      <c r="W1" s="507"/>
-      <c r="X1" s="507"/>
-      <c r="Y1" s="507"/>
-      <c r="Z1" s="507"/>
-      <c r="AA1" s="507"/>
-      <c r="AB1" s="507"/>
-      <c r="AC1" s="507"/>
-      <c r="AD1" s="507"/>
-      <c r="AE1" s="507"/>
-      <c r="AF1" s="507"/>
-      <c r="AG1" s="507"/>
-      <c r="AH1" s="507"/>
-      <c r="AI1" s="507"/>
-      <c r="AJ1" s="507"/>
-    </row>
-    <row r="2" spans="1:37" ht="18" x14ac:dyDescent="0.25">
+      <c r="B1" s="505"/>
+      <c r="C1" s="505"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
+      <c r="H1" s="505"/>
+      <c r="I1" s="505"/>
+      <c r="J1" s="505"/>
+      <c r="K1" s="505"/>
+      <c r="L1" s="505"/>
+      <c r="M1" s="505"/>
+      <c r="N1" s="505"/>
+      <c r="O1" s="505"/>
+      <c r="P1" s="505"/>
+      <c r="Q1" s="505"/>
+      <c r="R1" s="505"/>
+      <c r="S1" s="505"/>
+      <c r="T1" s="505"/>
+      <c r="U1" s="505"/>
+      <c r="V1" s="505"/>
+      <c r="W1" s="505"/>
+      <c r="X1" s="505"/>
+      <c r="Y1" s="505"/>
+      <c r="Z1" s="505"/>
+      <c r="AA1" s="505"/>
+      <c r="AB1" s="505"/>
+      <c r="AC1" s="505"/>
+      <c r="AD1" s="505"/>
+      <c r="AE1" s="505"/>
+      <c r="AF1" s="505"/>
+      <c r="AG1" s="505"/>
+      <c r="AH1" s="505"/>
+      <c r="AI1" s="505"/>
+      <c r="AJ1" s="505"/>
+    </row>
+    <row r="2" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="508" t="s">
+      <c r="B2" s="506" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="509"/>
-      <c r="D2" s="509"/>
-      <c r="E2" s="509"/>
-      <c r="F2" s="509"/>
-      <c r="G2" s="509"/>
-      <c r="H2" s="510"/>
-      <c r="I2" s="511" t="s">
+      <c r="C2" s="507"/>
+      <c r="D2" s="507"/>
+      <c r="E2" s="507"/>
+      <c r="F2" s="507"/>
+      <c r="G2" s="507"/>
+      <c r="H2" s="508"/>
+      <c r="I2" s="509" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="509"/>
-      <c r="K2" s="509"/>
-      <c r="L2" s="509"/>
-      <c r="M2" s="509"/>
-      <c r="N2" s="509"/>
-      <c r="O2" s="510"/>
-      <c r="P2" s="508" t="s">
+      <c r="J2" s="507"/>
+      <c r="K2" s="507"/>
+      <c r="L2" s="507"/>
+      <c r="M2" s="507"/>
+      <c r="N2" s="507"/>
+      <c r="O2" s="508"/>
+      <c r="P2" s="506" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="509"/>
-      <c r="R2" s="509"/>
-      <c r="S2" s="509"/>
-      <c r="T2" s="509"/>
-      <c r="U2" s="509"/>
-      <c r="V2" s="510"/>
-      <c r="W2" s="511" t="s">
+      <c r="Q2" s="507"/>
+      <c r="R2" s="507"/>
+      <c r="S2" s="507"/>
+      <c r="T2" s="507"/>
+      <c r="U2" s="507"/>
+      <c r="V2" s="508"/>
+      <c r="W2" s="509" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="509"/>
-      <c r="Y2" s="509"/>
-      <c r="Z2" s="509"/>
-      <c r="AA2" s="509"/>
-      <c r="AB2" s="509"/>
-      <c r="AC2" s="510"/>
-      <c r="AD2" s="512" t="s">
+      <c r="X2" s="507"/>
+      <c r="Y2" s="507"/>
+      <c r="Z2" s="507"/>
+      <c r="AA2" s="507"/>
+      <c r="AB2" s="507"/>
+      <c r="AC2" s="508"/>
+      <c r="AD2" s="510" t="s">
         <v>19</v>
       </c>
-      <c r="AE2" s="513"/>
-      <c r="AF2" s="513"/>
-      <c r="AG2" s="513"/>
-      <c r="AH2" s="513"/>
-      <c r="AI2" s="513"/>
-      <c r="AJ2" s="514"/>
-    </row>
-    <row r="3" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AE2" s="511"/>
+      <c r="AF2" s="511"/>
+      <c r="AG2" s="511"/>
+      <c r="AH2" s="511"/>
+      <c r="AI2" s="511"/>
+      <c r="AJ2" s="512"/>
+    </row>
+    <row r="3" spans="1:37" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -4383,7 +4348,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="252" t="s">
         <v>29</v>
       </c>
@@ -4527,7 +4492,7 @@
       <c r="AI6" s="20"/>
       <c r="AJ6" s="38"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -4609,7 +4574,7 @@
       </c>
       <c r="AJ7" s="30"/>
     </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>100</v>
       </c>
@@ -4683,7 +4648,7 @@
       </c>
       <c r="AJ8" s="30"/>
     </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="252" t="s">
         <v>77</v>
       </c>
@@ -4753,7 +4718,7 @@
       </c>
       <c r="AJ9" s="24"/>
     </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="253" t="s">
         <v>9</v>
       </c>
@@ -4797,7 +4762,7 @@
       <c r="AI10" s="20"/>
       <c r="AJ10" s="38"/>
     </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="254" t="s">
         <v>17</v>
       </c>
@@ -4857,7 +4822,7 @@
       </c>
       <c r="AJ11" s="30"/>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="254" t="s">
         <v>103</v>
       </c>
@@ -4901,7 +4866,7 @@
       <c r="AI12" s="11"/>
       <c r="AJ12" s="30"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="254" t="s">
         <v>14</v>
       </c>
@@ -4964,7 +4929,7 @@
       </c>
       <c r="AK13" s="103"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="255" t="s">
         <v>12</v>
       </c>
@@ -5025,7 +4990,7 @@
       </c>
       <c r="AK14" s="103"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="255" t="s">
         <v>36</v>
       </c>
@@ -5078,7 +5043,7 @@
       <c r="AJ15" s="30"/>
       <c r="AK15" s="103"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="255" t="s">
         <v>51</v>
       </c>
@@ -5135,7 +5100,7 @@
       </c>
       <c r="AK16" s="103"/>
     </row>
-    <row r="17" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="252" t="s">
         <v>5</v>
       </c>
@@ -5180,7 +5145,7 @@
       <c r="AJ17" s="40"/>
       <c r="AK17" s="103"/>
     </row>
-    <row r="18" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>38</v>
       </c>
@@ -5198,7 +5163,9 @@
       </c>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="L18" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
       <c r="O18" s="37"/>
@@ -5234,7 +5201,7 @@
       <c r="AK18" s="103"/>
       <c r="AL18" s="103"/>
     </row>
-    <row r="19" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="252" t="s">
         <v>61</v>
       </c>
@@ -5426,7 +5393,7 @@
       <c r="AJ21" s="24"/>
       <c r="AL21" s="103"/>
     </row>
-    <row r="22" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="252" t="s">
         <v>91</v>
       </c>
@@ -5571,7 +5538,7 @@
       <c r="AI23" s="20"/>
       <c r="AJ23" s="38"/>
     </row>
-    <row r="24" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="267" t="s">
         <v>32</v>
       </c>
@@ -5733,7 +5700,7 @@
       <c r="AK25" s="205"/>
       <c r="AL25" s="206"/>
     </row>
-    <row r="26" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="254" t="s">
         <v>39</v>
       </c>
@@ -5787,7 +5754,7 @@
       <c r="AK26" s="206"/>
       <c r="AL26" s="207"/>
     </row>
-    <row r="27" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="268" t="s">
         <v>31</v>
       </c>
@@ -5874,7 +5841,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="254" t="s">
         <v>30</v>
       </c>
@@ -5949,7 +5916,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="255" t="s">
         <v>15</v>
       </c>
@@ -6087,7 +6054,7 @@
       <c r="AJ30" s="48"/>
       <c r="AK30" s="141"/>
     </row>
-    <row r="31" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="252" t="s">
         <v>6</v>
       </c>
@@ -6146,7 +6113,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>10</v>
       </c>
@@ -6209,7 +6176,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>35</v>
       </c>
@@ -6306,7 +6273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="252" t="s">
         <v>13</v>
       </c>
@@ -6395,7 +6362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="253" t="s">
         <v>7</v>
       </c>
@@ -6478,7 +6445,7 @@
       <c r="AJ35" s="297"/>
       <c r="AK35" s="140"/>
     </row>
-    <row r="36" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="277" t="s">
         <v>62</v>
       </c>
@@ -6524,7 +6491,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>79</v>
       </c>
@@ -6598,7 +6565,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>80</v>
       </c>
@@ -6678,7 +6645,7 @@
       <c r="AI38" s="35"/>
       <c r="AJ38" s="48"/>
     </row>
-    <row r="39" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="252" t="s">
         <v>52</v>
       </c>
@@ -6758,7 +6725,7 @@
       </c>
       <c r="AJ39" s="376"/>
     </row>
-    <row r="40" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="252" t="s">
         <v>34</v>
       </c>
@@ -6779,8 +6746,8 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
-      <c r="S40" s="516"/>
-      <c r="T40" s="517"/>
+      <c r="S40" s="503"/>
+      <c r="T40" s="504"/>
       <c r="U40" s="360" t="s">
         <v>97</v>
       </c>
@@ -6808,7 +6775,7 @@
       <c r="AI40" s="35"/>
       <c r="AJ40" s="48"/>
     </row>
-    <row r="41" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="253" t="s">
         <v>53</v>
       </c>
@@ -6874,7 +6841,7 @@
       <c r="AI41" s="107"/>
       <c r="AJ41" s="377"/>
     </row>
-    <row r="42" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="255" t="s">
         <v>16</v>
       </c>
@@ -6933,7 +6900,7 @@
       <c r="AJ42" s="40"/>
       <c r="AK42" s="99"/>
     </row>
-    <row r="43" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="252" t="s">
         <v>8</v>
       </c>
@@ -6980,7 +6947,7 @@
       <c r="AJ43" s="40"/>
       <c r="AK43" s="99"/>
     </row>
-    <row r="44" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="252" t="s">
         <v>73</v>
       </c>
@@ -7122,7 +7089,7 @@
       </c>
       <c r="AK45" s="99"/>
     </row>
-    <row r="46" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="253" t="s">
         <v>63</v>
       </c>
@@ -7168,7 +7135,7 @@
       </c>
       <c r="AJ46" s="38"/>
     </row>
-    <row r="47" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="254" t="s">
         <v>81</v>
       </c>
@@ -7216,7 +7183,7 @@
       </c>
       <c r="AJ47" s="52"/>
     </row>
-    <row r="48" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="255" t="s">
         <v>71</v>
       </c>
@@ -7292,7 +7259,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>65</v>
       </c>
@@ -7352,7 +7319,7 @@
       <c r="AI49" s="279"/>
       <c r="AJ49" s="282"/>
     </row>
-    <row r="50" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="217" t="s">
         <v>46</v>
       </c>
@@ -7445,7 +7412,7 @@
       </c>
       <c r="AK50" s="103"/>
     </row>
-    <row r="51" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="243" t="s">
         <v>99</v>
       </c>
@@ -7490,7 +7457,7 @@
       <c r="AJ51" s="246"/>
       <c r="AK51" s="103"/>
     </row>
-    <row r="52" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="243" t="s">
         <v>90</v>
       </c>
@@ -7559,7 +7526,7 @@
       <c r="AJ52" s="81"/>
       <c r="AK52" s="103"/>
     </row>
-    <row r="53" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="261" t="s">
         <v>89</v>
       </c>
@@ -7628,7 +7595,7 @@
       <c r="AJ53" s="40"/>
       <c r="AL53" s="103"/>
     </row>
-    <row r="54" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>105</v>
       </c>
@@ -7704,7 +7671,7 @@
       <c r="AI54" s="45"/>
       <c r="AJ54" s="56"/>
     </row>
-    <row r="55" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>47</v>
       </c>
@@ -7800,7 +7767,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="261" t="s">
         <v>83</v>
       </c>
@@ -7869,7 +7836,7 @@
       <c r="AJ56" s="81"/>
       <c r="AK56" s="103"/>
     </row>
-    <row r="57" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>60</v>
       </c>
@@ -7964,7 +7931,7 @@
       <c r="AJ57" s="373"/>
       <c r="AK57" s="103"/>
     </row>
-    <row r="58" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
         <v>84</v>
       </c>
@@ -8065,7 +8032,7 @@
       </c>
       <c r="AK58" s="104"/>
     </row>
-    <row r="59" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="262" t="s">
         <v>64</v>
       </c>
@@ -8134,7 +8101,7 @@
       <c r="AJ59" s="116"/>
       <c r="AK59" s="104"/>
     </row>
-    <row r="60" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="262" t="s">
         <v>59</v>
       </c>
@@ -8181,7 +8148,7 @@
       <c r="AJ60" s="116"/>
       <c r="AL60" s="103"/>
     </row>
-    <row r="61" spans="1:38" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="225" t="s">
         <v>49</v>
       </c>
@@ -8250,7 +8217,7 @@
       <c r="AJ61" s="136"/>
       <c r="AL61" s="103"/>
     </row>
-    <row r="62" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="60"/>
       <c r="C62" s="60"/>
       <c r="D62" s="60"/>
@@ -8287,72 +8254,72 @@
       <c r="AI62" s="60"/>
       <c r="AJ62" s="60"/>
     </row>
-    <row r="63" spans="1:38" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:38" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="503" t="s">
+      <c r="B63" s="513" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="504"/>
-      <c r="D63" s="504"/>
-      <c r="E63" s="504"/>
-      <c r="F63" s="504"/>
-      <c r="G63" s="504"/>
-      <c r="H63" s="506"/>
-      <c r="I63" s="503" t="s">
+      <c r="C63" s="514"/>
+      <c r="D63" s="514"/>
+      <c r="E63" s="514"/>
+      <c r="F63" s="514"/>
+      <c r="G63" s="514"/>
+      <c r="H63" s="516"/>
+      <c r="I63" s="513" t="s">
         <v>7</v>
       </c>
-      <c r="J63" s="504"/>
-      <c r="K63" s="504"/>
-      <c r="L63" s="504"/>
-      <c r="M63" s="504"/>
-      <c r="N63" s="504"/>
-      <c r="O63" s="506"/>
-      <c r="P63" s="503" t="s">
+      <c r="J63" s="514"/>
+      <c r="K63" s="514"/>
+      <c r="L63" s="514"/>
+      <c r="M63" s="514"/>
+      <c r="N63" s="514"/>
+      <c r="O63" s="516"/>
+      <c r="P63" s="513" t="s">
         <v>86</v>
       </c>
-      <c r="Q63" s="504"/>
-      <c r="R63" s="504"/>
-      <c r="S63" s="504"/>
-      <c r="T63" s="504"/>
-      <c r="U63" s="504"/>
-      <c r="V63" s="506"/>
-      <c r="W63" s="503" t="s">
+      <c r="Q63" s="514"/>
+      <c r="R63" s="514"/>
+      <c r="S63" s="514"/>
+      <c r="T63" s="514"/>
+      <c r="U63" s="514"/>
+      <c r="V63" s="516"/>
+      <c r="W63" s="513" t="s">
         <v>50</v>
       </c>
-      <c r="X63" s="504"/>
-      <c r="Y63" s="504"/>
-      <c r="Z63" s="504"/>
-      <c r="AA63" s="504"/>
-      <c r="AB63" s="504"/>
-      <c r="AC63" s="506"/>
-      <c r="AD63" s="503" t="s">
+      <c r="X63" s="514"/>
+      <c r="Y63" s="514"/>
+      <c r="Z63" s="514"/>
+      <c r="AA63" s="514"/>
+      <c r="AB63" s="514"/>
+      <c r="AC63" s="516"/>
+      <c r="AD63" s="513" t="s">
         <v>100</v>
       </c>
-      <c r="AE63" s="504"/>
-      <c r="AF63" s="504"/>
-      <c r="AG63" s="504"/>
-      <c r="AH63" s="504"/>
-      <c r="AI63" s="504"/>
-      <c r="AJ63" s="505"/>
-    </row>
-    <row r="67" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="AE63" s="514"/>
+      <c r="AF63" s="514"/>
+      <c r="AG63" s="514"/>
+      <c r="AH63" s="514"/>
+      <c r="AI63" s="514"/>
+      <c r="AJ63" s="515"/>
+    </row>
+    <row r="67" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O67" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AD63:AJ63"/>
+    <mergeCell ref="W63:AC63"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="I63:O63"/>
+    <mergeCell ref="P63:V63"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
-    <mergeCell ref="AD63:AJ63"/>
-    <mergeCell ref="W63:AC63"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="I63:O63"/>
-    <mergeCell ref="P63:V63"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8364,35 +8331,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="488"/>
-    <col min="2" max="2" width="16.42578125" style="488" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="488" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="488" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="488"/>
+    <col min="1" max="1" width="8.88671875" style="488"/>
+    <col min="2" max="2" width="16.44140625" style="488" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="488" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="488" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="488"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="515" t="s">
+    <row r="1" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B1" s="517" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="515"/>
-      <c r="D1" s="515"/>
-    </row>
-    <row r="2" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="517"/>
+      <c r="D1" s="517"/>
+    </row>
+    <row r="2" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="151"/>
       <c r="C2" s="85"/>
       <c r="D2" s="86"/>
     </row>
-    <row r="3" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="363"/>
       <c r="C3" s="85" t="s">
         <v>21</v>
@@ -8401,12 +8368,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="489"/>
       <c r="C4" s="85"/>
       <c r="D4" s="86"/>
     </row>
-    <row r="5" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="490"/>
       <c r="C5" s="85" t="s">
         <v>21</v>
@@ -8415,12 +8382,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="151"/>
       <c r="C6" s="85"/>
       <c r="D6" s="86"/>
     </row>
-    <row r="7" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="364"/>
       <c r="C7" s="85" t="s">
         <v>21</v>
@@ -8429,12 +8396,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="151"/>
       <c r="C8" s="85"/>
       <c r="D8" s="86"/>
     </row>
-    <row r="9" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="234"/>
       <c r="C9" s="85" t="s">
         <v>21</v>
@@ -8443,12 +8410,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="151"/>
       <c r="C10" s="85"/>
       <c r="D10" s="86"/>
     </row>
-    <row r="11" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="152"/>
       <c r="C11" s="85" t="s">
         <v>21</v>
@@ -8457,12 +8424,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="151"/>
       <c r="C12" s="85"/>
       <c r="D12" s="86"/>
     </row>
-    <row r="13" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="153"/>
       <c r="C13" s="85" t="s">
         <v>21</v>
@@ -8471,12 +8438,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="151"/>
       <c r="C14" s="85"/>
       <c r="D14" s="86"/>
     </row>
-    <row r="15" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="87"/>
       <c r="C15" s="85" t="s">
         <v>21</v>
@@ -8485,12 +8452,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="154"/>
       <c r="C16" s="348"/>
       <c r="D16" s="86"/>
     </row>
-    <row r="17" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="172"/>
       <c r="C17" s="85" t="s">
         <v>21</v>
@@ -8499,13 +8466,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="349"/>
       <c r="C18" s="85"/>
       <c r="D18" s="155"/>
       <c r="F18" s="492"/>
     </row>
-    <row r="19" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="156"/>
       <c r="C19" s="85" t="s">
         <v>21</v>
@@ -8514,12 +8481,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="151"/>
       <c r="C20" s="85"/>
       <c r="D20" s="86"/>
     </row>
-    <row r="21" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="235"/>
       <c r="C21" s="85" t="s">
         <v>21</v>
@@ -8528,12 +8495,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="151"/>
       <c r="C22" s="85"/>
       <c r="D22" s="86"/>
     </row>
-    <row r="23" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="88"/>
       <c r="C23" s="85" t="s">
         <v>21</v>
@@ -8542,12 +8509,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="151"/>
       <c r="C24" s="85"/>
       <c r="D24" s="86"/>
     </row>
-    <row r="25" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="171"/>
       <c r="C25" s="85" t="s">
         <v>21</v>
@@ -8556,12 +8523,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="151"/>
       <c r="C26" s="85"/>
       <c r="D26" s="86"/>
     </row>
-    <row r="27" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="89"/>
       <c r="C27" s="85" t="s">
         <v>21</v>
@@ -8570,12 +8537,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="151"/>
       <c r="C28" s="85"/>
       <c r="D28" s="86"/>
     </row>
-    <row r="29" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="90"/>
       <c r="C29" s="85" t="s">
         <v>21</v>
@@ -8584,12 +8551,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="151"/>
       <c r="C30" s="151"/>
       <c r="D30" s="86"/>
     </row>
-    <row r="31" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="91"/>
       <c r="C31" s="85" t="s">
         <v>21</v>
@@ -8598,12 +8565,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="151"/>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
     </row>
-    <row r="33" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="157"/>
       <c r="C33" s="85" t="s">
         <v>21</v>
@@ -8612,12 +8579,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="151"/>
       <c r="C34" s="151"/>
       <c r="D34" s="86"/>
     </row>
-    <row r="35" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="92"/>
       <c r="C35" s="85" t="s">
         <v>21</v>
@@ -8626,12 +8593,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="151"/>
       <c r="C36" s="151"/>
       <c r="D36" s="151"/>
     </row>
-    <row r="37" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="158"/>
       <c r="C37" s="85" t="s">
         <v>21</v>
@@ -8640,12 +8607,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="154"/>
       <c r="C38" s="493"/>
       <c r="D38" s="86"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="493"/>
       <c r="C39" s="151"/>
       <c r="D39" s="151"/>
